--- a/medicine/Enfance/Rehausseur_de_siège/Rehausseur_de_siège.xlsx
+++ b/medicine/Enfance/Rehausseur_de_siège/Rehausseur_de_siège.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rehausseur_de_si%C3%A8ge</t>
+          <t>Rehausseur_de_siège</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un rehausseur de siège est un accessoire automobile utilisé pour permettre à un enfant, de plus de 15 kg ou 1 m, d'utiliser les ceintures de sécurité du véhicule malgré sa petite taille.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rehausseur_de_si%C3%A8ge</t>
+          <t>Rehausseur_de_siège</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rehausseur de siège peut être un simple morceau de mousse compact pour permettre à l'enfant de pouvoir utiliser les ceintures de sécurité sans risque d'étranglement, mais il existe aussi des réhausseurs qui permettent de maintenir la tète en cas de choc latéral.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rehausseur_de_si%C3%A8ge</t>
+          <t>Rehausseur_de_siège</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Groupes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avant 2003 les groupes de sièges enfants étaient définis en fonction du poids :
 Les groupes 0 et 1 sont réservés aux enfants de moins de 18 kg qui doivent utiliser un Siège enfant ;
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rehausseur_de_si%C3%A8ge</t>
+          <t>Rehausseur_de_siège</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +595,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Europe
-En Europe, jusqu'en 2003 la norme ECE R44/04 s'appliquait aux enfants de 15 à 36 kg[1]  ;
-Depuis 2003 la norme ECE R129 concernent les enfants dont la taille est de 100 à 150 cm[2].
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, jusqu'en 2003 la norme ECE R44/04 s'appliquait aux enfants de 15 à 36 kg  ;
+Depuis 2003 la norme ECE R129 concernent les enfants dont la taille est de 100 à 150 cm.
 Depuis 2017, pour les enfants de 15 à 36 kg (norme ECE R44/04) ou 100 à 150 cm (norme ECE R129), il n'y a aucune version homologuée sans dossier.
-France
-Depuis septembre 2017, les nouveaux rehausseurs i-Size (R129) destinés aux enfants mesurant plus de 100 cm (environ 3 ans et demi) doivent être dotés de parois amortisseuses pour assurer la protection latérale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rehausseur_de_siège</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rehausseur_de_si%C3%A8ge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Normes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis septembre 2017, les nouveaux rehausseurs i-Size (R129) destinés aux enfants mesurant plus de 100 cm (environ 3 ans et demi) doivent être dotés de parois amortisseuses pour assurer la protection latérale.
 </t>
         </is>
       </c>
